--- a/Data_SocialNetworkAnalysisNexusPhoenix.xlsx
+++ b/Data_SocialNetworkAnalysisNexusPhoenix.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leahjones/Dropbox (ASU)/ASU_InFEWS/Research Objective 1/Social Network Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3BA50C-66DE-914F-86E8-BB983837094E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60945860-B367-9D49-AAE0-2BF39BC1F4CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15500" xr2:uid="{239A412A-4328-C24D-93AA-9845B97EC342}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15500" activeTab="1" xr2:uid="{239A412A-4328-C24D-93AA-9845B97EC342}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
+    <sheet name="Stakeholder Organizations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="170">
   <si>
     <t>Document Name</t>
   </si>
@@ -279,12 +283,288 @@
   <si>
     <t>Meeting minutes, membership list, subcommittees members</t>
   </si>
+  <si>
+    <t>Arizona Department of Water Resources (ADWR)</t>
+  </si>
+  <si>
+    <t>Central Arizona Project (CAP)</t>
+  </si>
+  <si>
+    <t>City of Phoenix</t>
+  </si>
+  <si>
+    <t>City of Scottsdale</t>
+  </si>
+  <si>
+    <t>City of Goodyear Public Works</t>
+  </si>
+  <si>
+    <t>EPCOR</t>
+  </si>
+  <si>
+    <t>Arizona Water Company</t>
+  </si>
+  <si>
+    <t>Maricopa Agriculture</t>
+  </si>
+  <si>
+    <t>Arizona Cattlemen's Association</t>
+  </si>
+  <si>
+    <t>Arizona Farm Bureau</t>
+  </si>
+  <si>
+    <t>Home Builders Association of Central AZ</t>
+  </si>
+  <si>
+    <t>Valley Partnership</t>
+  </si>
+  <si>
+    <t>AZ Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>Gila River Indian Community</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan</t>
+  </si>
+  <si>
+    <t>Walton Family Foundation</t>
+  </si>
+  <si>
+    <t>Salt River Project (SRP)</t>
+  </si>
+  <si>
+    <t>Arizona Water Banking Authority</t>
+  </si>
+  <si>
+    <t>CAGRD</t>
+  </si>
+  <si>
+    <t>Central AZ Water Conservation District</t>
+  </si>
+  <si>
+    <t>Govenor's Office</t>
+  </si>
+  <si>
+    <t>City of Gilbert</t>
+  </si>
+  <si>
+    <t>City of Peoria</t>
+  </si>
+  <si>
+    <t>City of Tempe</t>
+  </si>
+  <si>
+    <t>City of Chandler</t>
+  </si>
+  <si>
+    <t>City of Avondale</t>
+  </si>
+  <si>
+    <t>City of Mesa</t>
+  </si>
+  <si>
+    <t>City of Glendale</t>
+  </si>
+  <si>
+    <t>Buckeye Water Conservation and Drainage District</t>
+  </si>
+  <si>
+    <t>Electrical District No. 7, Maricopa County, Arizona</t>
+  </si>
+  <si>
+    <t>Maricopa County Municipal Water Conservation District No. 1</t>
+  </si>
+  <si>
+    <t>Roosevelt Irrigation District</t>
+  </si>
+  <si>
+    <t>Tonopah Irrigation District</t>
+  </si>
+  <si>
+    <t>Agribusiness and Water Council</t>
+  </si>
+  <si>
+    <t>Replenishment Services LLC</t>
+  </si>
+  <si>
+    <t>Arizona State University (ASU)</t>
+  </si>
+  <si>
+    <t>Arizona Public Service (APS)</t>
+  </si>
+  <si>
+    <t>Arizona Deparment of Agriculture</t>
+  </si>
+  <si>
+    <t>Arizona Beef Council</t>
+  </si>
+  <si>
+    <t>Arizona Cotton Growers Association</t>
+  </si>
+  <si>
+    <t>Arizona Crop Protection Associaiton</t>
+  </si>
+  <si>
+    <t>Arizona Food Marketing Alliance</t>
+  </si>
+  <si>
+    <t>Arizona Leafy Greens Marketing Agreement</t>
+  </si>
+  <si>
+    <t>Local First Arizona</t>
+  </si>
+  <si>
+    <t>United Food Bank</t>
+  </si>
+  <si>
+    <t>Arizona Department of Environmental Quality (ADEQ)</t>
+  </si>
+  <si>
+    <t>Rio Verde Utilities</t>
+  </si>
+  <si>
+    <t>Johnson Utilities, LLC</t>
+  </si>
+  <si>
+    <t>Southwest Gas</t>
+  </si>
+  <si>
+    <t>Rose Valley Water Company</t>
+  </si>
+  <si>
+    <t>Liberty Utilities</t>
+  </si>
+  <si>
+    <t>Arizona Department of Forestry</t>
+  </si>
+  <si>
+    <t>Arizona Game and Fish</t>
+  </si>
+  <si>
+    <t>Flood Control District of Maricopa County</t>
+  </si>
+  <si>
+    <t>Akida LLC (energy management technology firm)</t>
+  </si>
+  <si>
+    <t>Farm Credit Services Southwest</t>
+  </si>
+  <si>
+    <t>Hickman's Eggs</t>
+  </si>
+  <si>
+    <t>Maricopa Association of Governments (MAG)</t>
+  </si>
+  <si>
+    <t>Arizona Restaurant Association</t>
+  </si>
+  <si>
+    <t>Sierra Club</t>
+  </si>
+  <si>
+    <t>Lincoln Institute of Land Policy</t>
+  </si>
+  <si>
+    <t>Western Area Power Authortiy</t>
+  </si>
+  <si>
+    <t>Maricopa Department of Public Health</t>
+  </si>
+  <si>
+    <t>AZ Alliance for Livable Communities</t>
+  </si>
+  <si>
+    <t>Vitalyst Health Foundation</t>
+  </si>
+  <si>
+    <t>Stone Hoe Gardens</t>
+  </si>
+  <si>
+    <t>St. Mary's Food Bank Alliance</t>
+  </si>
+  <si>
+    <t>Valley of the Sun United Way</t>
+  </si>
+  <si>
+    <t>The Mollen Foundation</t>
+  </si>
+  <si>
+    <t>AZ Community Land Trust</t>
+  </si>
+  <si>
+    <t>Sun Valley Farms</t>
+  </si>
+  <si>
+    <t>Rovey Dairy</t>
+  </si>
+  <si>
+    <t>American Waste Solutions</t>
+  </si>
+  <si>
+    <t>Papago Park Center</t>
+  </si>
+  <si>
+    <t>Pace Farms</t>
+  </si>
+  <si>
+    <t>Associated Farming Company</t>
+  </si>
+  <si>
+    <t>Freeman Farms</t>
+  </si>
+  <si>
+    <t>Schrader Brothers Farms</t>
+  </si>
+  <si>
+    <t>Arizona Milk Producers &amp; Dairy Council</t>
+  </si>
+  <si>
+    <t>Farm Express</t>
+  </si>
+  <si>
+    <t>Kerr Family Dairy</t>
+  </si>
+  <si>
+    <t>Steadfast Farm</t>
+  </si>
+  <si>
+    <t>Gingg Farms</t>
+  </si>
+  <si>
+    <t>Stotz Dairy Farm</t>
+  </si>
+  <si>
+    <t>AZ House of Representatives, District 25</t>
+  </si>
+  <si>
+    <t>Arizona Municipal Water Users Association (AMUWA)</t>
+  </si>
+  <si>
+    <t>Stakeholder Organization</t>
+  </si>
+  <si>
+    <t>Nexus Sector</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Cross-Cutting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +576,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,13 +607,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44210126-8945-EA4B-84DC-B66CBCF03D2E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,4 +1347,804 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4064CA-7A2F-1B43-BDB4-762FE978B98F}">
+  <dimension ref="A1:D94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B94">
+    <sortCondition ref="A2:A94"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>